--- a/worker.xlsx
+++ b/worker.xlsx
@@ -1,26 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bauernmarkt-my.sharepoint.com/personal/kiehl_karls_de/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larsbunting/side_projects/worker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{894FE69B-BA48-4C30-AD77-4322B9B89AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B10C16-19CD-A141-883E-E5E555FF622A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="6240" yWindow="6420" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="worker-2" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="worker" localSheetId="0">'worker-2'!$A$1:$Y$2</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{0809FF3D-9525-1942-9AE9-CBC6818D45A4}" name="worker" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/larsbunting/side_projects/worker/worker.csv" decimal="," thousands="." tab="0" semicolon="1">
+      <textFields count="25">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
@@ -61,35 +100,83 @@
     <t>arrival_time</t>
   </si>
   <si>
-    <t>UA</t>
-  </si>
-  <si>
     <t>HAM</t>
   </si>
   <si>
-    <t>SR8219</t>
-  </si>
-  <si>
-    <t>KBP</t>
-  </si>
-  <si>
-    <t>Mann</t>
-  </si>
-  <si>
-    <t>Muster</t>
-  </si>
-  <si>
-    <t>XX111111</t>
-  </si>
-  <si>
-    <t>Buxtehude</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>nationality_other</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>airport_end</t>
+  </si>
+  <si>
+    <t>copied</t>
+  </si>
+  <si>
+    <t>deleted_at</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>sat Sercaita, com. Sinca,</t>
+  </si>
+  <si>
+    <t>muss nachgetragen werden</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>ZV174116</t>
+  </si>
+  <si>
+    <t>Brasov</t>
+  </si>
+  <si>
+    <t>SR8121</t>
+  </si>
+  <si>
+    <t>IAS</t>
+  </si>
+  <si>
+    <t>2020-04-27T09:35:01.000000Z</t>
+  </si>
+  <si>
+    <t>2020-04-27T16:06:22.000000Z</t>
+  </si>
+  <si>
+    <t>Richtig</t>
+  </si>
+  <si>
+    <t>blubb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +310,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -566,10 +660,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -626,6 +721,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="worker" connectionId="1" xr16:uid="{80B6E037-5C8C-E243-B8E1-66554BF13E53}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -924,2010 +1023,2090 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M321"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>77932</v>
+      </c>
+      <c r="B2">
+        <v>2191</v>
       </c>
       <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1">
+        <v>507204</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1">
+        <v>36451</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1">
-        <v>36506</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="1">
         <v>43976</v>
       </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.75347222222222221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F6" s="1"/>
       <c r="J6" s="1"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
       <c r="J7" s="1"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F8" s="1"/>
       <c r="J8" s="1"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F9" s="1"/>
       <c r="J9" s="1"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F10" s="1"/>
       <c r="J10" s="1"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F11" s="1"/>
       <c r="J11" s="1"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F12" s="1"/>
       <c r="J12" s="1"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F13" s="1"/>
       <c r="J13" s="1"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F14" s="1"/>
       <c r="J14" s="1"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F15" s="1"/>
       <c r="J15" s="1"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F16" s="1"/>
       <c r="J16" s="1"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F17" s="1"/>
       <c r="J17" s="1"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F18" s="1"/>
       <c r="J18" s="1"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F19" s="1"/>
       <c r="J19" s="1"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F20" s="1"/>
       <c r="J20" s="1"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F21" s="1"/>
       <c r="J21" s="1"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F22" s="1"/>
       <c r="J22" s="1"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F23" s="1"/>
       <c r="J23" s="1"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F24" s="1"/>
       <c r="J24" s="1"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F25" s="1"/>
       <c r="J25" s="1"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F26" s="1"/>
       <c r="J26" s="1"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F27" s="1"/>
       <c r="J27" s="1"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F28" s="1"/>
       <c r="J28" s="1"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F29" s="1"/>
       <c r="J29" s="1"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F30" s="1"/>
       <c r="J30" s="1"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F31" s="1"/>
       <c r="J31" s="1"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F32" s="1"/>
       <c r="J32" s="1"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F33" s="1"/>
       <c r="J33" s="1"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F34" s="1"/>
       <c r="J34" s="1"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F35" s="1"/>
       <c r="J35" s="1"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F36" s="1"/>
       <c r="J36" s="1"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F37" s="1"/>
       <c r="J37" s="1"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F38" s="1"/>
       <c r="J38" s="1"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F39" s="1"/>
       <c r="J39" s="1"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F40" s="1"/>
       <c r="J40" s="1"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F41" s="1"/>
       <c r="J41" s="1"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F42" s="1"/>
       <c r="J42" s="1"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F43" s="1"/>
       <c r="J43" s="1"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F44" s="1"/>
       <c r="J44" s="1"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F45" s="1"/>
       <c r="J45" s="1"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F46" s="1"/>
       <c r="J46" s="1"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F47" s="1"/>
       <c r="J47" s="1"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F48" s="1"/>
       <c r="J48" s="1"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F49" s="1"/>
       <c r="J49" s="1"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F50" s="1"/>
       <c r="J50" s="1"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F51" s="1"/>
       <c r="J51" s="1"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F52" s="1"/>
       <c r="J52" s="1"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F53" s="1"/>
       <c r="J53" s="1"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F54" s="1"/>
       <c r="J54" s="1"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F55" s="1"/>
       <c r="J55" s="1"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F56" s="1"/>
       <c r="J56" s="1"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F57" s="1"/>
       <c r="J57" s="1"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F58" s="1"/>
       <c r="J58" s="1"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F59" s="1"/>
       <c r="J59" s="1"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F60" s="1"/>
       <c r="J60" s="1"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F61" s="1"/>
       <c r="J61" s="1"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F62" s="1"/>
       <c r="J62" s="1"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F63" s="1"/>
       <c r="J63" s="1"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F64" s="1"/>
       <c r="J64" s="1"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F65" s="1"/>
       <c r="J65" s="1"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F66" s="1"/>
       <c r="J66" s="1"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F67" s="1"/>
       <c r="J67" s="1"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F68" s="1"/>
       <c r="J68" s="1"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F69" s="1"/>
       <c r="J69" s="1"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F70" s="1"/>
       <c r="J70" s="1"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F71" s="1"/>
       <c r="J71" s="1"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F72" s="1"/>
       <c r="J72" s="1"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F73" s="1"/>
       <c r="J73" s="1"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F74" s="1"/>
       <c r="J74" s="1"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F75" s="1"/>
       <c r="J75" s="1"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F76" s="1"/>
       <c r="J76" s="1"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F77" s="1"/>
       <c r="J77" s="1"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F78" s="1"/>
       <c r="J78" s="1"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F79" s="1"/>
       <c r="J79" s="1"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F80" s="1"/>
       <c r="J80" s="1"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F81" s="1"/>
       <c r="J81" s="1"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
     </row>
-    <row r="82" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F82" s="1"/>
       <c r="J82" s="1"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F83" s="1"/>
       <c r="J83" s="1"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
     </row>
-    <row r="84" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F84" s="1"/>
       <c r="J84" s="1"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
     </row>
-    <row r="85" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F85" s="1"/>
       <c r="J85" s="1"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
     </row>
-    <row r="86" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F86" s="1"/>
       <c r="J86" s="1"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F87" s="1"/>
       <c r="J87" s="1"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
     </row>
-    <row r="88" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F88" s="1"/>
       <c r="J88" s="1"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
     </row>
-    <row r="89" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F89" s="1"/>
       <c r="J89" s="1"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
     </row>
-    <row r="90" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F90" s="1"/>
       <c r="J90" s="1"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
     </row>
-    <row r="91" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F91" s="1"/>
       <c r="J91" s="1"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
     </row>
-    <row r="92" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F92" s="1"/>
       <c r="J92" s="1"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F93" s="1"/>
       <c r="J93" s="1"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
     </row>
-    <row r="94" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F94" s="1"/>
       <c r="J94" s="1"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F95" s="1"/>
       <c r="J95" s="1"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
     </row>
-    <row r="96" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F96" s="1"/>
       <c r="J96" s="1"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F97" s="1"/>
       <c r="J97" s="1"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
     </row>
-    <row r="98" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F98" s="1"/>
       <c r="J98" s="1"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
     </row>
-    <row r="99" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F99" s="1"/>
       <c r="J99" s="1"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
     </row>
-    <row r="100" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F100" s="1"/>
       <c r="J100" s="1"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
     </row>
-    <row r="101" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F101" s="1"/>
       <c r="J101" s="1"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
     </row>
-    <row r="102" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F102" s="1"/>
       <c r="J102" s="1"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
     </row>
-    <row r="103" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F103" s="1"/>
       <c r="J103" s="1"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
     </row>
-    <row r="104" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F104" s="1"/>
       <c r="J104" s="1"/>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
     </row>
-    <row r="105" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F105" s="1"/>
       <c r="J105" s="1"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
     </row>
-    <row r="106" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F106" s="1"/>
       <c r="J106" s="1"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
     </row>
-    <row r="107" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F107" s="1"/>
       <c r="J107" s="1"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
     </row>
-    <row r="108" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F108" s="1"/>
       <c r="J108" s="1"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F109" s="1"/>
       <c r="J109" s="1"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
     </row>
-    <row r="110" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F110" s="1"/>
       <c r="J110" s="1"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
     </row>
-    <row r="111" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F111" s="1"/>
       <c r="J111" s="1"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
     </row>
-    <row r="112" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F112" s="1"/>
       <c r="J112" s="1"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
     </row>
-    <row r="113" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F113" s="1"/>
       <c r="J113" s="1"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
     </row>
-    <row r="114" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F114" s="1"/>
       <c r="J114" s="1"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
     </row>
-    <row r="115" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F115" s="1"/>
       <c r="J115" s="1"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
     </row>
-    <row r="116" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F116" s="1"/>
       <c r="J116" s="1"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
     </row>
-    <row r="117" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F117" s="1"/>
       <c r="J117" s="1"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
     </row>
-    <row r="118" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F118" s="1"/>
       <c r="J118" s="1"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
     </row>
-    <row r="119" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F119" s="1"/>
       <c r="J119" s="1"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
     </row>
-    <row r="120" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F120" s="1"/>
       <c r="J120" s="1"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
     </row>
-    <row r="121" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F121" s="1"/>
       <c r="J121" s="1"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
     </row>
-    <row r="122" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F122" s="1"/>
       <c r="J122" s="1"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
     </row>
-    <row r="123" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F123" s="1"/>
       <c r="J123" s="1"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
     </row>
-    <row r="124" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F124" s="1"/>
       <c r="J124" s="1"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
     </row>
-    <row r="125" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F125" s="1"/>
       <c r="J125" s="1"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
     </row>
-    <row r="126" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F126" s="1"/>
       <c r="J126" s="1"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
     </row>
-    <row r="127" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F127" s="1"/>
       <c r="J127" s="1"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
     </row>
-    <row r="128" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F128" s="1"/>
       <c r="J128" s="1"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
     </row>
-    <row r="129" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F129" s="1"/>
       <c r="J129" s="1"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
     </row>
-    <row r="130" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F130" s="1"/>
       <c r="J130" s="1"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
     </row>
-    <row r="131" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F131" s="1"/>
       <c r="J131" s="1"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
     </row>
-    <row r="132" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F132" s="1"/>
       <c r="J132" s="1"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
     </row>
-    <row r="133" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F133" s="1"/>
       <c r="J133" s="1"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
     </row>
-    <row r="134" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F134" s="1"/>
       <c r="J134" s="1"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
     </row>
-    <row r="135" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F135" s="1"/>
       <c r="J135" s="1"/>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
     </row>
-    <row r="136" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F136" s="1"/>
       <c r="J136" s="1"/>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
     </row>
-    <row r="137" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F137" s="1"/>
       <c r="J137" s="1"/>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
     </row>
-    <row r="138" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F138" s="1"/>
       <c r="J138" s="1"/>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
     </row>
-    <row r="139" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F139" s="1"/>
       <c r="J139" s="1"/>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
     </row>
-    <row r="140" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F140" s="1"/>
       <c r="J140" s="1"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
     </row>
-    <row r="141" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F141" s="1"/>
       <c r="J141" s="1"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
     </row>
-    <row r="142" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F142" s="1"/>
       <c r="J142" s="1"/>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
     </row>
-    <row r="143" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F143" s="1"/>
       <c r="J143" s="1"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
     </row>
-    <row r="144" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F144" s="1"/>
       <c r="J144" s="1"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
     </row>
-    <row r="145" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F145" s="1"/>
       <c r="J145" s="1"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
     </row>
-    <row r="146" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F146" s="1"/>
       <c r="J146" s="1"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
     </row>
-    <row r="147" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F147" s="1"/>
       <c r="J147" s="1"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
     </row>
-    <row r="148" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F148" s="1"/>
       <c r="J148" s="1"/>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
     </row>
-    <row r="149" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F149" s="1"/>
       <c r="J149" s="1"/>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
     </row>
-    <row r="150" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F150" s="1"/>
       <c r="J150" s="1"/>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
     </row>
-    <row r="151" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F151" s="1"/>
       <c r="J151" s="1"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
     </row>
-    <row r="152" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F152" s="1"/>
       <c r="J152" s="1"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
     </row>
-    <row r="153" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F153" s="1"/>
       <c r="J153" s="1"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
     </row>
-    <row r="154" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F154" s="1"/>
       <c r="J154" s="1"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
     </row>
-    <row r="155" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F155" s="1"/>
       <c r="J155" s="1"/>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
     </row>
-    <row r="156" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F156" s="1"/>
       <c r="J156" s="1"/>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
     </row>
-    <row r="157" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F157" s="1"/>
       <c r="J157" s="1"/>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
     </row>
-    <row r="158" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F158" s="1"/>
       <c r="J158" s="1"/>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
     </row>
-    <row r="159" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F159" s="1"/>
       <c r="J159" s="1"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
     </row>
-    <row r="160" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F160" s="1"/>
       <c r="J160" s="1"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
     </row>
-    <row r="161" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F161" s="1"/>
       <c r="J161" s="1"/>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
     </row>
-    <row r="162" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F162" s="1"/>
       <c r="J162" s="1"/>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
     </row>
-    <row r="163" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F163" s="1"/>
       <c r="J163" s="1"/>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
     </row>
-    <row r="164" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F164" s="1"/>
       <c r="J164" s="1"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
     </row>
-    <row r="165" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F165" s="1"/>
       <c r="J165" s="1"/>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
     </row>
-    <row r="166" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F166" s="1"/>
       <c r="J166" s="1"/>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
     </row>
-    <row r="167" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F167" s="1"/>
       <c r="J167" s="1"/>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
     </row>
-    <row r="168" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F168" s="1"/>
       <c r="J168" s="1"/>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
     </row>
-    <row r="169" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F169" s="1"/>
       <c r="J169" s="1"/>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
     </row>
-    <row r="170" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F170" s="1"/>
       <c r="J170" s="1"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
     </row>
-    <row r="171" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F171" s="1"/>
       <c r="J171" s="1"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
     </row>
-    <row r="172" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F172" s="1"/>
       <c r="J172" s="1"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
     </row>
-    <row r="173" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F173" s="1"/>
       <c r="J173" s="1"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
     </row>
-    <row r="174" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F174" s="1"/>
       <c r="J174" s="1"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
     </row>
-    <row r="175" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F175" s="1"/>
       <c r="J175" s="1"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
     </row>
-    <row r="176" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F176" s="1"/>
       <c r="J176" s="1"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
     </row>
-    <row r="177" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F177" s="1"/>
       <c r="J177" s="1"/>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
     </row>
-    <row r="178" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F178" s="1"/>
       <c r="J178" s="1"/>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
     </row>
-    <row r="179" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F179" s="1"/>
       <c r="J179" s="1"/>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
     </row>
-    <row r="180" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F180" s="1"/>
       <c r="J180" s="1"/>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
     </row>
-    <row r="181" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F181" s="1"/>
       <c r="J181" s="1"/>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
     </row>
-    <row r="182" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F182" s="1"/>
       <c r="J182" s="1"/>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
     </row>
-    <row r="183" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F183" s="1"/>
       <c r="J183" s="1"/>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
     </row>
-    <row r="184" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F184" s="1"/>
       <c r="J184" s="1"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
     </row>
-    <row r="185" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F185" s="1"/>
       <c r="J185" s="1"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
     </row>
-    <row r="186" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F186" s="1"/>
       <c r="J186" s="1"/>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
     </row>
-    <row r="187" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F187" s="1"/>
       <c r="J187" s="1"/>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
     </row>
-    <row r="188" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F188" s="1"/>
       <c r="J188" s="1"/>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
     </row>
-    <row r="189" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F189" s="1"/>
       <c r="J189" s="1"/>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
     </row>
-    <row r="190" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F190" s="1"/>
       <c r="J190" s="1"/>
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
     </row>
-    <row r="191" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F191" s="1"/>
       <c r="J191" s="1"/>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
     </row>
-    <row r="192" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F192" s="1"/>
       <c r="J192" s="1"/>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
     </row>
-    <row r="193" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F193" s="1"/>
       <c r="J193" s="1"/>
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
     </row>
-    <row r="194" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F194" s="1"/>
       <c r="J194" s="1"/>
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
     </row>
-    <row r="195" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F195" s="1"/>
       <c r="J195" s="1"/>
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
     </row>
-    <row r="196" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F196" s="1"/>
       <c r="J196" s="1"/>
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
     </row>
-    <row r="197" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F197" s="1"/>
       <c r="J197" s="1"/>
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
     </row>
-    <row r="198" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F198" s="1"/>
       <c r="J198" s="1"/>
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
     </row>
-    <row r="199" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F199" s="1"/>
       <c r="J199" s="1"/>
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
     </row>
-    <row r="200" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F200" s="1"/>
       <c r="J200" s="1"/>
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
     </row>
-    <row r="201" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F201" s="1"/>
       <c r="J201" s="1"/>
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
     </row>
-    <row r="202" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F202" s="1"/>
       <c r="J202" s="1"/>
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
     </row>
-    <row r="203" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F203" s="1"/>
       <c r="J203" s="1"/>
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
     </row>
-    <row r="204" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F204" s="1"/>
       <c r="J204" s="1"/>
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
     </row>
-    <row r="205" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F205" s="1"/>
       <c r="J205" s="1"/>
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
     </row>
-    <row r="206" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F206" s="1"/>
       <c r="J206" s="1"/>
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
     </row>
-    <row r="207" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F207" s="1"/>
       <c r="J207" s="1"/>
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
     </row>
-    <row r="208" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F208" s="1"/>
       <c r="J208" s="1"/>
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
     </row>
-    <row r="209" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F209" s="1"/>
       <c r="J209" s="1"/>
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
     </row>
-    <row r="210" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F210" s="1"/>
       <c r="J210" s="1"/>
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
     </row>
-    <row r="211" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F211" s="1"/>
       <c r="J211" s="1"/>
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
     </row>
-    <row r="212" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F212" s="1"/>
       <c r="J212" s="1"/>
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
     </row>
-    <row r="213" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F213" s="1"/>
       <c r="J213" s="1"/>
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
     </row>
-    <row r="214" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F214" s="1"/>
       <c r="J214" s="1"/>
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
     </row>
-    <row r="215" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F215" s="1"/>
       <c r="J215" s="1"/>
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
     </row>
-    <row r="216" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F216" s="1"/>
       <c r="J216" s="1"/>
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
     </row>
-    <row r="217" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F217" s="1"/>
       <c r="J217" s="1"/>
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
     </row>
-    <row r="218" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F218" s="1"/>
       <c r="J218" s="1"/>
       <c r="L218" s="2"/>
       <c r="M218" s="2"/>
     </row>
-    <row r="219" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F219" s="1"/>
       <c r="J219" s="1"/>
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
     </row>
-    <row r="220" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F220" s="1"/>
       <c r="J220" s="1"/>
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
     </row>
-    <row r="221" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F221" s="1"/>
       <c r="J221" s="1"/>
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
     </row>
-    <row r="222" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F222" s="1"/>
       <c r="J222" s="1"/>
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
     </row>
-    <row r="223" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F223" s="1"/>
       <c r="J223" s="1"/>
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
     </row>
-    <row r="224" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F224" s="1"/>
       <c r="J224" s="1"/>
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
     </row>
-    <row r="225" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F225" s="1"/>
       <c r="J225" s="1"/>
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
     </row>
-    <row r="226" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F226" s="1"/>
       <c r="J226" s="1"/>
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
     </row>
-    <row r="227" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F227" s="1"/>
       <c r="J227" s="1"/>
       <c r="L227" s="2"/>
       <c r="M227" s="2"/>
     </row>
-    <row r="228" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F228" s="1"/>
       <c r="J228" s="1"/>
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
     </row>
-    <row r="229" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F229" s="1"/>
       <c r="J229" s="1"/>
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
     </row>
-    <row r="230" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F230" s="1"/>
       <c r="J230" s="1"/>
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
     </row>
-    <row r="231" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F231" s="1"/>
       <c r="J231" s="1"/>
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
     </row>
-    <row r="232" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F232" s="1"/>
       <c r="J232" s="1"/>
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
     </row>
-    <row r="233" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F233" s="1"/>
       <c r="J233" s="1"/>
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
     </row>
-    <row r="234" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F234" s="1"/>
       <c r="J234" s="1"/>
       <c r="L234" s="2"/>
       <c r="M234" s="2"/>
     </row>
-    <row r="235" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F235" s="1"/>
       <c r="J235" s="1"/>
       <c r="L235" s="2"/>
       <c r="M235" s="2"/>
     </row>
-    <row r="236" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F236" s="1"/>
       <c r="J236" s="1"/>
       <c r="L236" s="2"/>
       <c r="M236" s="2"/>
     </row>
-    <row r="237" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F237" s="1"/>
       <c r="J237" s="1"/>
       <c r="L237" s="2"/>
       <c r="M237" s="2"/>
     </row>
-    <row r="238" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F238" s="1"/>
       <c r="J238" s="1"/>
       <c r="L238" s="2"/>
       <c r="M238" s="2"/>
     </row>
-    <row r="239" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F239" s="1"/>
       <c r="J239" s="1"/>
       <c r="L239" s="2"/>
       <c r="M239" s="2"/>
     </row>
-    <row r="240" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F240" s="1"/>
       <c r="J240" s="1"/>
       <c r="L240" s="2"/>
       <c r="M240" s="2"/>
     </row>
-    <row r="241" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F241" s="1"/>
       <c r="J241" s="1"/>
       <c r="L241" s="2"/>
       <c r="M241" s="2"/>
     </row>
-    <row r="242" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F242" s="1"/>
       <c r="J242" s="1"/>
       <c r="L242" s="2"/>
       <c r="M242" s="2"/>
     </row>
-    <row r="243" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F243" s="1"/>
       <c r="J243" s="1"/>
       <c r="L243" s="2"/>
       <c r="M243" s="2"/>
     </row>
-    <row r="244" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F244" s="1"/>
       <c r="J244" s="1"/>
       <c r="L244" s="2"/>
       <c r="M244" s="2"/>
     </row>
-    <row r="245" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F245" s="1"/>
       <c r="J245" s="1"/>
       <c r="L245" s="2"/>
       <c r="M245" s="2"/>
     </row>
-    <row r="246" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F246" s="1"/>
       <c r="J246" s="1"/>
       <c r="L246" s="2"/>
       <c r="M246" s="2"/>
     </row>
-    <row r="247" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F247" s="1"/>
       <c r="J247" s="1"/>
       <c r="L247" s="2"/>
       <c r="M247" s="2"/>
     </row>
-    <row r="248" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F248" s="1"/>
       <c r="J248" s="1"/>
       <c r="L248" s="2"/>
       <c r="M248" s="2"/>
     </row>
-    <row r="249" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F249" s="1"/>
       <c r="J249" s="1"/>
       <c r="L249" s="2"/>
       <c r="M249" s="2"/>
     </row>
-    <row r="250" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F250" s="1"/>
       <c r="J250" s="1"/>
       <c r="L250" s="2"/>
       <c r="M250" s="2"/>
     </row>
-    <row r="251" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F251" s="1"/>
       <c r="J251" s="1"/>
       <c r="L251" s="2"/>
       <c r="M251" s="2"/>
     </row>
-    <row r="252" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F252" s="1"/>
       <c r="J252" s="1"/>
       <c r="L252" s="2"/>
       <c r="M252" s="2"/>
     </row>
-    <row r="253" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F253" s="1"/>
       <c r="J253" s="1"/>
       <c r="L253" s="2"/>
       <c r="M253" s="2"/>
     </row>
-    <row r="254" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F254" s="1"/>
       <c r="J254" s="1"/>
       <c r="L254" s="2"/>
       <c r="M254" s="2"/>
     </row>
-    <row r="255" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F255" s="1"/>
       <c r="J255" s="1"/>
       <c r="L255" s="2"/>
       <c r="M255" s="2"/>
     </row>
-    <row r="256" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F256" s="1"/>
       <c r="J256" s="1"/>
       <c r="L256" s="2"/>
       <c r="M256" s="2"/>
     </row>
-    <row r="257" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F257" s="1"/>
       <c r="J257" s="1"/>
       <c r="L257" s="2"/>
       <c r="M257" s="2"/>
     </row>
-    <row r="258" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F258" s="1"/>
       <c r="J258" s="1"/>
       <c r="L258" s="2"/>
       <c r="M258" s="2"/>
     </row>
-    <row r="259" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F259" s="1"/>
       <c r="J259" s="1"/>
       <c r="L259" s="2"/>
       <c r="M259" s="2"/>
     </row>
-    <row r="260" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F260" s="1"/>
       <c r="J260" s="1"/>
       <c r="L260" s="2"/>
       <c r="M260" s="2"/>
     </row>
-    <row r="261" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F261" s="1"/>
       <c r="J261" s="1"/>
       <c r="L261" s="2"/>
       <c r="M261" s="2"/>
     </row>
-    <row r="262" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F262" s="1"/>
       <c r="J262" s="1"/>
       <c r="L262" s="2"/>
       <c r="M262" s="2"/>
     </row>
-    <row r="263" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F263" s="1"/>
       <c r="J263" s="1"/>
       <c r="L263" s="2"/>
       <c r="M263" s="2"/>
     </row>
-    <row r="264" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F264" s="1"/>
       <c r="J264" s="1"/>
       <c r="L264" s="2"/>
       <c r="M264" s="2"/>
     </row>
-    <row r="265" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F265" s="1"/>
       <c r="J265" s="1"/>
       <c r="L265" s="2"/>
       <c r="M265" s="2"/>
     </row>
-    <row r="266" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F266" s="1"/>
       <c r="J266" s="1"/>
       <c r="L266" s="2"/>
       <c r="M266" s="2"/>
     </row>
-    <row r="267" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F267" s="1"/>
       <c r="J267" s="1"/>
       <c r="L267" s="2"/>
       <c r="M267" s="2"/>
     </row>
-    <row r="268" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F268" s="1"/>
       <c r="J268" s="1"/>
       <c r="L268" s="2"/>
       <c r="M268" s="2"/>
     </row>
-    <row r="269" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F269" s="1"/>
       <c r="J269" s="1"/>
       <c r="L269" s="2"/>
       <c r="M269" s="2"/>
     </row>
-    <row r="270" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F270" s="1"/>
       <c r="J270" s="1"/>
       <c r="L270" s="2"/>
       <c r="M270" s="2"/>
     </row>
-    <row r="271" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F271" s="1"/>
       <c r="J271" s="1"/>
       <c r="L271" s="2"/>
       <c r="M271" s="2"/>
     </row>
-    <row r="272" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F272" s="1"/>
       <c r="J272" s="1"/>
       <c r="L272" s="2"/>
       <c r="M272" s="2"/>
     </row>
-    <row r="273" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F273" s="1"/>
       <c r="J273" s="1"/>
       <c r="L273" s="2"/>
       <c r="M273" s="2"/>
     </row>
-    <row r="274" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F274" s="1"/>
       <c r="J274" s="1"/>
       <c r="L274" s="2"/>
       <c r="M274" s="2"/>
     </row>
-    <row r="275" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F275" s="1"/>
       <c r="J275" s="1"/>
       <c r="L275" s="2"/>
       <c r="M275" s="2"/>
     </row>
-    <row r="276" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F276" s="1"/>
       <c r="J276" s="1"/>
       <c r="L276" s="2"/>
       <c r="M276" s="2"/>
     </row>
-    <row r="277" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F277" s="1"/>
       <c r="J277" s="1"/>
       <c r="L277" s="2"/>
       <c r="M277" s="2"/>
     </row>
-    <row r="278" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F278" s="1"/>
       <c r="J278" s="1"/>
       <c r="L278" s="2"/>
       <c r="M278" s="2"/>
     </row>
-    <row r="279" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F279" s="1"/>
       <c r="J279" s="1"/>
       <c r="L279" s="2"/>
       <c r="M279" s="2"/>
     </row>
-    <row r="280" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F280" s="1"/>
       <c r="J280" s="1"/>
       <c r="L280" s="2"/>
       <c r="M280" s="2"/>
     </row>
-    <row r="281" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F281" s="1"/>
       <c r="J281" s="1"/>
       <c r="L281" s="2"/>
       <c r="M281" s="2"/>
     </row>
-    <row r="282" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F282" s="1"/>
       <c r="J282" s="1"/>
       <c r="L282" s="2"/>
       <c r="M282" s="2"/>
     </row>
-    <row r="283" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F283" s="1"/>
       <c r="J283" s="1"/>
       <c r="L283" s="2"/>
       <c r="M283" s="2"/>
     </row>
-    <row r="284" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F284" s="1"/>
       <c r="J284" s="1"/>
       <c r="L284" s="2"/>
       <c r="M284" s="2"/>
     </row>
-    <row r="285" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F285" s="1"/>
       <c r="J285" s="1"/>
       <c r="L285" s="2"/>
       <c r="M285" s="2"/>
     </row>
-    <row r="286" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F286" s="1"/>
       <c r="J286" s="1"/>
       <c r="L286" s="2"/>
       <c r="M286" s="2"/>
     </row>
-    <row r="287" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F287" s="1"/>
       <c r="J287" s="1"/>
       <c r="L287" s="2"/>
       <c r="M287" s="2"/>
     </row>
-    <row r="288" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F288" s="1"/>
       <c r="J288" s="1"/>
       <c r="L288" s="2"/>
       <c r="M288" s="2"/>
     </row>
-    <row r="289" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F289" s="1"/>
       <c r="J289" s="1"/>
       <c r="L289" s="2"/>
       <c r="M289" s="2"/>
     </row>
-    <row r="290" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F290" s="1"/>
       <c r="J290" s="1"/>
       <c r="L290" s="2"/>
       <c r="M290" s="2"/>
     </row>
-    <row r="291" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F291" s="1"/>
       <c r="J291" s="1"/>
       <c r="L291" s="2"/>
       <c r="M291" s="2"/>
     </row>
-    <row r="292" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F292" s="1"/>
       <c r="J292" s="1"/>
       <c r="L292" s="2"/>
       <c r="M292" s="2"/>
     </row>
-    <row r="293" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F293" s="1"/>
       <c r="J293" s="1"/>
       <c r="L293" s="2"/>
       <c r="M293" s="2"/>
     </row>
-    <row r="294" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F294" s="1"/>
       <c r="J294" s="1"/>
       <c r="L294" s="2"/>
       <c r="M294" s="2"/>
     </row>
-    <row r="295" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F295" s="1"/>
       <c r="J295" s="1"/>
       <c r="L295" s="2"/>
       <c r="M295" s="2"/>
     </row>
-    <row r="296" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F296" s="1"/>
       <c r="J296" s="1"/>
       <c r="L296" s="2"/>
       <c r="M296" s="2"/>
     </row>
-    <row r="297" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F297" s="1"/>
       <c r="J297" s="1"/>
       <c r="L297" s="2"/>
       <c r="M297" s="2"/>
     </row>
-    <row r="298" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F298" s="1"/>
       <c r="J298" s="1"/>
       <c r="L298" s="2"/>
       <c r="M298" s="2"/>
     </row>
-    <row r="299" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F299" s="1"/>
       <c r="J299" s="1"/>
       <c r="L299" s="2"/>
       <c r="M299" s="2"/>
     </row>
-    <row r="300" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F300" s="1"/>
       <c r="J300" s="1"/>
       <c r="L300" s="2"/>
       <c r="M300" s="2"/>
     </row>
-    <row r="301" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F301" s="1"/>
       <c r="J301" s="1"/>
       <c r="L301" s="2"/>
       <c r="M301" s="2"/>
     </row>
-    <row r="302" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F302" s="1"/>
       <c r="J302" s="1"/>
       <c r="L302" s="2"/>
       <c r="M302" s="2"/>
     </row>
-    <row r="303" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F303" s="1"/>
       <c r="J303" s="1"/>
       <c r="L303" s="2"/>
       <c r="M303" s="2"/>
     </row>
-    <row r="304" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F304" s="1"/>
       <c r="J304" s="1"/>
       <c r="L304" s="2"/>
       <c r="M304" s="2"/>
     </row>
-    <row r="305" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F305" s="1"/>
       <c r="J305" s="1"/>
       <c r="L305" s="2"/>
       <c r="M305" s="2"/>
     </row>
-    <row r="306" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F306" s="1"/>
       <c r="J306" s="1"/>
       <c r="L306" s="2"/>
       <c r="M306" s="2"/>
     </row>
-    <row r="307" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F307" s="1"/>
       <c r="J307" s="1"/>
       <c r="L307" s="2"/>
       <c r="M307" s="2"/>
     </row>
-    <row r="308" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F308" s="1"/>
       <c r="J308" s="1"/>
       <c r="L308" s="2"/>
       <c r="M308" s="2"/>
     </row>
-    <row r="309" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F309" s="1"/>
       <c r="J309" s="1"/>
       <c r="L309" s="2"/>
       <c r="M309" s="2"/>
     </row>
-    <row r="310" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F310" s="1"/>
       <c r="J310" s="1"/>
       <c r="L310" s="2"/>
       <c r="M310" s="2"/>
     </row>
-    <row r="311" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F311" s="1"/>
       <c r="J311" s="1"/>
       <c r="L311" s="2"/>
       <c r="M311" s="2"/>
     </row>
-    <row r="312" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F312" s="1"/>
       <c r="J312" s="1"/>
       <c r="L312" s="2"/>
       <c r="M312" s="2"/>
     </row>
-    <row r="313" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F313" s="1"/>
       <c r="J313" s="1"/>
       <c r="L313" s="2"/>
       <c r="M313" s="2"/>
     </row>
-    <row r="314" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F314" s="1"/>
       <c r="J314" s="1"/>
       <c r="L314" s="2"/>
       <c r="M314" s="2"/>
     </row>
-    <row r="315" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F315" s="1"/>
       <c r="J315" s="1"/>
       <c r="L315" s="2"/>
       <c r="M315" s="2"/>
     </row>
-    <row r="316" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F316" s="1"/>
       <c r="J316" s="1"/>
       <c r="L316" s="2"/>
       <c r="M316" s="2"/>
     </row>
-    <row r="317" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F317" s="1"/>
       <c r="J317" s="1"/>
       <c r="L317" s="2"/>
       <c r="M317" s="2"/>
     </row>
-    <row r="318" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F318" s="1"/>
       <c r="J318" s="1"/>
       <c r="L318" s="2"/>
       <c r="M318" s="2"/>
     </row>
-    <row r="319" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F319" s="1"/>
       <c r="J319" s="1"/>
       <c r="L319" s="2"/>
       <c r="M319" s="2"/>
     </row>
-    <row r="320" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F320" s="1"/>
       <c r="J320" s="1"/>
       <c r="L320" s="2"/>
       <c r="M320" s="2"/>
-    </row>
-    <row r="321" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F321" s="1"/>
-      <c r="J321" s="1"/>
-      <c r="L321" s="2"/>
-      <c r="M321" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2935,6 +3114,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010019FDBF70BC8FDA48A1EB57B34866DBE4" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="76700c6aeef3ab32ea9b12cd1ebf33a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e413ec1d-5181-4641-9743-a51028fe8db3" xmlns:ns4="7f1b376d-e96a-4532-b198-8a77b2604b94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6e3ec643ebbf7f1679fc760c95972986" ns3:_="" ns4:_="">
     <xsd:import namespace="e413ec1d-5181-4641-9743-a51028fe8db3"/>
@@ -3129,22 +3323,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B07648-4B51-490E-8E77-31E1F45FCE4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7f1b376d-e96a-4532-b198-8a77b2604b94"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e413ec1d-5181-4641-9743-a51028fe8db3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCB5B1FF-EB44-45DD-B063-8AEC57E90A64}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F3F05E-9050-4068-99A5-740A3ED7AA94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3161,29 +3365,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCB5B1FF-EB44-45DD-B063-8AEC57E90A64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B07648-4B51-490E-8E77-31E1F45FCE4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="7f1b376d-e96a-4532-b198-8a77b2604b94"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="e413ec1d-5181-4641-9743-a51028fe8db3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/worker.xlsx
+++ b/worker.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larsbunting/side_projects/worker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B10C16-19CD-A141-883E-E5E555FF622A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49F721B-0F67-3E48-BF7C-D6E1CFDFE343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="6420" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10460" yWindow="2120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="worker-2" sheetId="1" r:id="rId1"/>
+    <sheet name="harvest worker" sheetId="1" r:id="rId1"/>
+    <sheet name="returning harvest worker" sheetId="2" r:id="rId2"/>
+    <sheet name="return trip" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="worker" localSheetId="0">'worker-2'!$A$1:$Y$2</definedName>
+    <definedName name="worker" localSheetId="0">'harvest worker'!$A$1:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -25,7 +27,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{0809FF3D-9525-1942-9AE9-CBC6818D45A4}" name="worker" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/larsbunting/side_projects/worker/worker.csv" decimal="," thousands="." tab="0" semicolon="1">
+    <textPr sourceFile="/Users/larsbunting/side_projects/worker/worker.csv" decimal="," thousands="." tab="0" semicolon="1">
       <textFields count="25">
         <textField/>
         <textField/>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -142,9 +144,6 @@
     <t>sat Sercaita, com. Sinca,</t>
   </si>
   <si>
-    <t>muss nachgetragen werden</t>
-  </si>
-  <si>
     <t>ROU</t>
   </si>
   <si>
@@ -170,13 +169,34 @@
   </si>
   <si>
     <t>blubb</t>
+  </si>
+  <si>
+    <t>steht jetzt drin</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>airplane</t>
+  </si>
+  <si>
+    <t>return_trip_date_plane</t>
+  </si>
+  <si>
+    <t>destination_airport</t>
+  </si>
+  <si>
+    <t>SFX</t>
+  </si>
+  <si>
+    <t>birthday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +335,12 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF008000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -660,11 +686,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1027,7 +1056,7 @@
   <dimension ref="A1:Y320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1135,17 +1164,14 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>77932</v>
-      </c>
       <c r="B2">
         <v>2191</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -1154,35 +1180,35 @@
         <v>507204</v>
       </c>
       <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="K2" s="1">
         <v>36451</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" t="s">
         <v>13</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P2" s="1">
         <v>43976</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R2" s="2">
         <v>0.64583333333333337</v>
@@ -1194,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" t="s">
         <v>33</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -3107,6 +3133,120 @@
       <c r="J320" s="1"/>
       <c r="L320" s="2"/>
       <c r="M320" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B899814A-E0CE-4946-B16A-97CA648C7E24}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21E80C3-E71F-6A4D-8DFF-38D394B79E8E}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="6">
+        <v>43969</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1234</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43969</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/worker.xlsx
+++ b/worker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larsbunting/side_projects/worker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49F721B-0F67-3E48-BF7C-D6E1CFDFE343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7190C99-7C20-8544-9DD2-28F85C4415E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10460" yWindow="2120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9360" yWindow="2120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="harvest worker" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -102,9 +102,6 @@
     <t>arrival_time</t>
   </si>
   <si>
-    <t>HAM</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -141,43 +138,7 @@
     <t>updated_at</t>
   </si>
   <si>
-    <t>sat Sercaita, com. Sinca,</t>
-  </si>
-  <si>
-    <t>ROU</t>
-  </si>
-  <si>
-    <t>ZV174116</t>
-  </si>
-  <si>
-    <t>Brasov</t>
-  </si>
-  <si>
-    <t>SR8121</t>
-  </si>
-  <si>
-    <t>IAS</t>
-  </si>
-  <si>
-    <t>2020-04-27T09:35:01.000000Z</t>
-  </si>
-  <si>
-    <t>2020-04-27T16:06:22.000000Z</t>
-  </si>
-  <si>
-    <t>Richtig</t>
-  </si>
-  <si>
-    <t>blubb</t>
-  </si>
-  <si>
-    <t>steht jetzt drin</t>
-  </si>
-  <si>
     <t>type</t>
-  </si>
-  <si>
-    <t>airplane</t>
   </si>
   <si>
     <t>return_trip_date_plane</t>
@@ -186,17 +147,29 @@
     <t>destination_airport</t>
   </si>
   <si>
-    <t>SFX</t>
+    <t>return</t>
   </si>
   <si>
-    <t>birthday</t>
+    <t>me</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>zu hause</t>
+  </si>
+  <si>
+    <t>POL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,10 +312,16 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF2FFF12"/>
+      <name val="Source Code Pro for Powerline"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Menlo"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -686,14 +665,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1055,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1088,10 +1069,10 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1100,13 +1081,13 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -1124,7 +1105,7 @@
         <v>6</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N1" t="s">
         <v>7</v>
@@ -1145,86 +1126,33 @@
         <v>12</v>
       </c>
       <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>2191</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1">
-        <v>507204</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="1">
-        <v>36451</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="F2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="1">
-        <v>43976</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0.71180555555555547</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="X2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>33</v>
-      </c>
+      <c r="P2" s="1"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F3" s="1"/>
@@ -3141,10 +3069,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B899814A-E0CE-4946-B16A-97CA648C7E24}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3154,40 +3082,84 @@
     <col min="5" max="5" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>1234</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>123345</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1">
+        <v>31393</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3199,54 +3171,41 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="6">
-        <v>43969</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1234</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1">
-        <v>43969</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3254,18 +3213,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3464,6 +3423,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCB5B1FF-EB44-45DD-B063-8AEC57E90A64}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B07648-4B51-490E-8E77-31E1F45FCE4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3476,14 +3443,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="e413ec1d-5181-4641-9743-a51028fe8db3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCB5B1FF-EB44-45DD-B063-8AEC57E90A64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
